--- a/quarterlyReports/telehealth/01-01-21 Totals 2020 added TELEHEALTH VISITS _edited.xlsx
+++ b/quarterlyReports/telehealth/01-01-21 Totals 2020 added TELEHEALTH VISITS _edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayalapp/Documents/coding_projects/dad_data_project/quarterlyReports/telehealth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F588D7-17CC-BB45-A937-0FC235DC542D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96454B76-BCC0-B54F-B95D-0C31E35B9CD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="211" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Date Range: 12/1/2020 - 12/31/2020</t>
   </si>
@@ -759,6 +759,31 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -767,6 +792,22 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -823,47 +864,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J11"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1205,29 +1205,30 @@
     <col min="10" max="10" width="103.75" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
     <col min="16" max="16" width="14.5" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5" style="33" customWidth="1"/>
-    <col min="22" max="22" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" style="31"/>
-    <col min="32" max="32" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.25" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.25" customWidth="1"/>
+    <col min="31" max="31" width="15" style="31" customWidth="1"/>
+    <col min="32" max="32" width="18.75" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="49"/>
@@ -1238,7 +1239,7 @@
       <c r="A2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="49"/>
@@ -1247,7 +1248,7 @@
     </row>
     <row r="3" spans="1:32" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="49"/>
@@ -1262,196 +1263,194 @@
       <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="73"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
     </row>
     <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
     </row>
     <row r="8" spans="1:32" ht="19" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
     </row>
     <row r="9" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="51" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="51" t="s">
+      <c r="L9" s="59"/>
+      <c r="M9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="51" t="s">
+      <c r="N9" s="59"/>
+      <c r="O9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="51" t="s">
+      <c r="P9" s="59"/>
+      <c r="Q9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="52"/>
-      <c r="S9" s="51" t="s">
+      <c r="R9" s="59"/>
+      <c r="S9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="51" t="s">
+      <c r="T9" s="59"/>
+      <c r="U9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="51" t="s">
+      <c r="V9" s="59"/>
+      <c r="W9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="51" t="s">
+      <c r="X9" s="59"/>
+      <c r="Y9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="51" t="s">
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AB9" s="52"/>
-      <c r="AE9" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF9" s="52"/>
+      <c r="AB9" s="59"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="59"/>
     </row>
     <row r="10" spans="1:32" ht="18" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1506,28 +1505,24 @@
       <c r="AB10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AE10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF10" s="32" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="32"/>
     </row>
     <row r="11" spans="1:32" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
       <c r="M11" s="7"/>
@@ -1554,16 +1549,16 @@
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="9">
         <v>271</v>
       </c>
@@ -1618,14 +1613,8 @@
       <c r="AB12" s="10">
         <v>1</v>
       </c>
-      <c r="AE12" s="43">
-        <f>SUM(K12+M12+O12+Q12+S12+U12+W12+Y12+AA12)</f>
-        <v>1039</v>
-      </c>
-      <c r="AF12" s="44">
-        <f>AE12/AE12</f>
-        <v>1</v>
-      </c>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="44"/>
     </row>
     <row r="13" spans="1:32" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -1633,15 +1622,15 @@
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="9">
         <v>19</v>
       </c>
@@ -1696,14 +1685,8 @@
       <c r="AB13" s="10">
         <v>0</v>
       </c>
-      <c r="AE13" s="43">
-        <f t="shared" ref="AE13:AE14" si="0">SUM(K13+M13+O13+Q13+S13+U13+W13+Y13+AA13)</f>
-        <v>288</v>
-      </c>
-      <c r="AF13" s="44">
-        <f>AE13/AE12</f>
-        <v>0.27718960538979787</v>
-      </c>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="44"/>
     </row>
     <row r="14" spans="1:32" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -1711,15 +1694,15 @@
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="12">
         <v>4</v>
       </c>
@@ -1774,14 +1757,8 @@
       <c r="AB14" s="15">
         <v>0</v>
       </c>
-      <c r="AE14" s="45">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="AF14" s="46">
-        <f>AE14/AE12</f>
-        <v>4.523580365736285E-2</v>
-      </c>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="46"/>
     </row>
     <row r="15" spans="1:32" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
@@ -1789,15 +1766,15 @@
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="9">
         <v>248</v>
       </c>
@@ -1852,104 +1829,98 @@
       <c r="AB15" s="10">
         <v>1</v>
       </c>
-      <c r="AE15" s="43">
-        <f>SUM(K15+M15+O15+Q15+S15+U15+W15+Y15+AA15)</f>
-        <v>704</v>
-      </c>
-      <c r="AF15" s="44">
-        <f>AE15/AE12</f>
-        <v>0.67757459095283923</v>
-      </c>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="44"/>
     </row>
     <row r="18" spans="1:21" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
     </row>
     <row r="19" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
     </row>
     <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="70"/>
-      <c r="M20" s="69" t="s">
+      <c r="L20" s="63"/>
+      <c r="M20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="70"/>
-      <c r="O20" s="69" t="s">
+      <c r="N20" s="63"/>
+      <c r="O20" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="69" t="s">
+      <c r="P20" s="63"/>
+      <c r="Q20" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="R20" s="70"/>
-      <c r="T20" s="51" t="s">
+      <c r="R20" s="63"/>
+      <c r="T20" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="U20" s="52"/>
+      <c r="U20" s="59"/>
     </row>
     <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="16" t="s">
         <v>13</v>
       </c>
@@ -1985,17 +1956,17 @@
       <c r="A22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="19"/>
       <c r="L22" s="20"/>
       <c r="M22" s="19"/>
@@ -2012,16 +1983,16 @@
       <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="23">
         <v>3008</v>
       </c>
@@ -2061,15 +2032,15 @@
       <c r="C24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="23">
         <v>500</v>
       </c>
@@ -2109,15 +2080,15 @@
       <c r="C25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="27">
         <v>239</v>
       </c>
@@ -2157,15 +2128,15 @@
       <c r="C26" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="23">
         <v>2269</v>
       </c>
@@ -2201,25 +2172,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A5:AB5"/>
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="B22:J22"/>
@@ -2236,6 +2188,25 @@
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="A18:R18"/>
     <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A5:AB5"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
